--- a/Arquitectura de Procesos/División.xlsx
+++ b/Arquitectura de Procesos/División.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>P</t>
   </si>
@@ -78,20 +78,32 @@
     <t>Externos</t>
   </si>
   <si>
-    <t>Encargado</t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
     <t>JR</t>
+  </si>
+  <si>
+    <t>José Fernando Ramos Ramírez</t>
+  </si>
+  <si>
+    <t>Susan Pamela Rios Sarmiento</t>
+  </si>
+  <si>
+    <t>Caracterización</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +119,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -138,6 +188,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,24 +517,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G15"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,11 +550,14 @@
       <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -482,11 +567,14 @@
       <c r="D6" s="4">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -496,11 +584,14 @@
       <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -510,11 +601,14 @@
       <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -524,11 +618,14 @@
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -538,11 +635,14 @@
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -552,11 +652,14 @@
       <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -566,11 +669,14 @@
       <c r="D12" s="4">
         <v>34</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -580,11 +686,14 @@
       <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -594,23 +703,53 @@
       <c r="D14" s="4">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D15" s="3">
         <f>SUM(D5:D14)</f>
         <v>103</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1">
+    </row>
+    <row r="17" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7">
         <f>SUMIF(E5:E14,"JR",D5:D14)</f>
         <v>51</v>
       </c>
-      <c r="G15" s="1">
+      <c r="E18" s="7">
+        <f>SUMIF(F5:F14,"JR",D5:D14)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6">
         <f>SUMIF(E5:E14,"SR",D5:D14)</f>
         <v>52</v>
+      </c>
+      <c r="E19" s="6">
+        <f>SUMIF(F5:F14,"SR",D5:D14)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Arquitectura de Procesos/División.xlsx
+++ b/Arquitectura de Procesos/División.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
